--- a/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
+++ b/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
@@ -5,15 +5,20 @@
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkwch\Documents\GitHub\csharp-for-skill\Excel\2020지방\EXCEL2020\EXCEL2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkwch\Documents\GitHub\csharp-for-skill\Excel\2020지방\EXCEL2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09F59A5F-72E9-4AAE-9613-66165CB10D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4A03F0-4DC2-4B08-9DDA-BA63FF6C8643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15435" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,9 +37,18 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>호텔 예약 프로그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -45,6 +59,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="40"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -73,8 +95,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -392,13 +417,128 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E053C7D-A03F-42E6-B1F9-E342FFABDF64}">
   <sheetPr codeName="Sheet1"/>
+  <dimension ref="C3:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="3:3" ht="57" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="3:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="3:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="3:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="3:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="3:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="3:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="3:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="3:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="3:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="3:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="3:3" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="40.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142C5310-F216-431A-8853-6EEF131D624B}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40913019-97B1-4F66-BCE8-05DC81B5B8E5}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFEBA80-F49D-4FE4-B1CC-800BA9817F26}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3E0452-8693-4D78-9808-F5D80DF6EB55}">
+  <sheetPr codeName="Sheet5"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB74EF1-61BE-405C-85A8-CBA09CB00C5B}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <dataConsolidate/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
+++ b/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkwch\Documents\GitHub\csharp-for-skill\Excel\2020지방\EXCEL2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4A03F0-4DC2-4B08-9DDA-BA63FF6C8643}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532BB03A-B7D9-4143-8AFB-85F3B1E2BB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
   </bookViews>
@@ -420,14 +420,12 @@
   <dimension ref="C3:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="14" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="3" max="7" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="3:3" ht="57" x14ac:dyDescent="0.25">

--- a/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
+++ b/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkwch\Documents\GitHub\csharp-for-skill\Excel\2020지방\EXCEL2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{532BB03A-B7D9-4143-8AFB-85F3B1E2BB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AB17EC-DC31-4B18-A416-A21E946BC3E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,10 +38,112 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>호텔 예약 프로그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>번호</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>PW</t>
+  </si>
+  <si>
+    <t>이름</t>
+  </si>
+  <si>
+    <t>생년월일</t>
+  </si>
+  <si>
+    <t>잔여포인트</t>
+  </si>
+  <si>
+    <t>등급</t>
+  </si>
+  <si>
+    <t>user01</t>
+  </si>
+  <si>
+    <t>qwe123!</t>
+  </si>
+  <si>
+    <t>김동하</t>
+  </si>
+  <si>
+    <t>최우수</t>
+  </si>
+  <si>
+    <t>user02</t>
+  </si>
+  <si>
+    <t>wer123!</t>
+  </si>
+  <si>
+    <t>김혁규</t>
+  </si>
+  <si>
+    <t>user03</t>
+  </si>
+  <si>
+    <t>rty123!</t>
+  </si>
+  <si>
+    <t>이상혁</t>
+  </si>
+  <si>
+    <t>우수</t>
+  </si>
+  <si>
+    <t>user04</t>
+  </si>
+  <si>
+    <t>zxc123!</t>
+  </si>
+  <si>
+    <t>박진성</t>
+  </si>
+  <si>
+    <t>user05</t>
+  </si>
+  <si>
+    <t>zxc12@</t>
+  </si>
+  <si>
+    <t>정지훈</t>
+  </si>
+  <si>
+    <t>user06</t>
+  </si>
+  <si>
+    <t>asdf2!</t>
+  </si>
+  <si>
+    <t>김종인</t>
+  </si>
+  <si>
+    <t>일반</t>
+  </si>
+  <si>
+    <t>user07</t>
+  </si>
+  <si>
+    <t>6754@a</t>
+  </si>
+  <si>
+    <t>이현우</t>
+  </si>
+  <si>
+    <t>user08</t>
+  </si>
+  <si>
+    <t>zaq123!</t>
+  </si>
+  <si>
+    <t>강감찬</t>
   </si>
 </sst>
 </file>
@@ -73,20 +175,41 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -95,11 +218,23 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,7 +554,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="C3:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -464,12 +599,226 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{142C5310-F216-431A-8853-6EEF131D624B}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3">
+        <v>35674</v>
+      </c>
+      <c r="F2" s="4">
+        <v>880700</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="3">
+        <v>36165</v>
+      </c>
+      <c r="F3" s="4">
+        <v>1586500</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3">
+        <v>37042</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2000</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="3">
+        <v>32096</v>
+      </c>
+      <c r="F5" s="4">
+        <v>1000</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="3">
+        <v>34735</v>
+      </c>
+      <c r="F6" s="4">
+        <v>2300</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3">
+        <v>31294</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3">
+        <v>33730</v>
+      </c>
+      <c r="F8" s="4">
+        <v>1500</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3">
+        <v>35890</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1500</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
+++ b/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkwch\Documents\GitHub\csharp-for-skill\Excel\2020지방\EXCEL2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9AB17EC-DC31-4B18-A416-A21E946BC3E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9318AFD-5D0A-4614-AB73-E2BEA49EF013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
   </bookViews>
@@ -602,16 +602,18 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="12.85546875" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="3.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>1</v>
       </c>

--- a/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
+++ b/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkwch\Documents\GitHub\csharp-for-skill\Excel\2020지방\EXCEL2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9318AFD-5D0A-4614-AB73-E2BEA49EF013}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53389A12-C688-4962-A5F4-9BE54328AF95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="67">
   <si>
     <t>호텔 예약 프로그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -144,6 +144,103 @@
   </si>
   <si>
     <t>강감찬</t>
+  </si>
+  <si>
+    <t>객실번호</t>
+  </si>
+  <si>
+    <t>객실구분</t>
+  </si>
+  <si>
+    <t>최대인원</t>
+  </si>
+  <si>
+    <t>1박요금</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>2명</t>
+  </si>
+  <si>
+    <t>3명</t>
+  </si>
+  <si>
+    <t>Superior</t>
+  </si>
+  <si>
+    <t>1명</t>
+  </si>
+  <si>
+    <t>Deluxe</t>
+  </si>
+  <si>
+    <t>Suite</t>
+  </si>
+  <si>
+    <t>5명</t>
+  </si>
+  <si>
+    <t>결제번호</t>
+  </si>
+  <si>
+    <t>회원번호</t>
+  </si>
+  <si>
+    <t>인원수</t>
+  </si>
+  <si>
+    <t>예약날짜</t>
+  </si>
+  <si>
+    <t>체크인날짜</t>
+  </si>
+  <si>
+    <t>체크아웃날짜</t>
+  </si>
+  <si>
+    <t>포인트사용유무</t>
+  </si>
+  <si>
+    <t>현금</t>
+  </si>
+  <si>
+    <t>201, 202</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>포인트</t>
+  </si>
+  <si>
+    <t>206, 208, 402</t>
+  </si>
+  <si>
+    <t>1,2,1</t>
+  </si>
+  <si>
+    <t>205, 302</t>
+  </si>
+  <si>
+    <t>1,1</t>
+  </si>
+  <si>
+    <t>202, 207</t>
+  </si>
+  <si>
+    <t>201, 207, 202</t>
+  </si>
+  <si>
+    <t>201, 206</t>
+  </si>
+  <si>
+    <t>3,1</t>
+  </si>
+  <si>
+    <t>총금액</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -218,7 +315,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -235,6 +332,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -601,7 +704,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -831,12 +934,365 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40913019-97B1-4F66-BCE8-05DC81B5B8E5}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>201</v>
+      </c>
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>202</v>
+      </c>
+      <c r="B3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D3" s="6">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>203</v>
+      </c>
+      <c r="B4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="6">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>205</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>206</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>207</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="6">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>208</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="6">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>301</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>302</v>
+      </c>
+      <c r="B11" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="6">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>303</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>304</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="6">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>305</v>
+      </c>
+      <c r="B14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>306</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+      <c r="D15" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>307</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="6">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>308</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="6">
+        <v>115000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>401</v>
+      </c>
+      <c r="B18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="6">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>402</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="6">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>403</v>
+      </c>
+      <c r="B20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>404</v>
+      </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="6">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>405</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" s="6">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>406</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" s="6">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>407</v>
+      </c>
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="C24" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="6">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>408</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="6">
+        <v>110000</v>
+      </c>
+    </row>
+  </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -847,12 +1303,1353 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FFEBA80-F49D-4FE4-B1CC-800BA9817F26}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="3.140625" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>206</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="7">
+        <v>43919</v>
+      </c>
+      <c r="F2" s="7">
+        <v>43976</v>
+      </c>
+      <c r="G2" s="7">
+        <v>43981</v>
+      </c>
+      <c r="H2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>405</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>43920</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43957</v>
+      </c>
+      <c r="G3" s="7">
+        <v>43964</v>
+      </c>
+      <c r="H3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>308</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="7">
+        <v>43921</v>
+      </c>
+      <c r="F4" s="7">
+        <v>43966</v>
+      </c>
+      <c r="G4" s="7">
+        <v>43969</v>
+      </c>
+      <c r="H4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>303</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>43922</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43971</v>
+      </c>
+      <c r="G5" s="7">
+        <v>43976</v>
+      </c>
+      <c r="H5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>201</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" s="7">
+        <v>43923</v>
+      </c>
+      <c r="F6" s="7">
+        <v>43980</v>
+      </c>
+      <c r="G6" s="7">
+        <v>43985</v>
+      </c>
+      <c r="H6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="7">
+        <v>43923</v>
+      </c>
+      <c r="F7" s="7">
+        <v>43967</v>
+      </c>
+      <c r="G7" s="7">
+        <v>43973</v>
+      </c>
+      <c r="H7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>401</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" s="7">
+        <v>43927</v>
+      </c>
+      <c r="F8" s="7">
+        <v>43964</v>
+      </c>
+      <c r="G8" s="7">
+        <v>43968</v>
+      </c>
+      <c r="H8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>304</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
+        <v>43927</v>
+      </c>
+      <c r="F9" s="7">
+        <v>43976</v>
+      </c>
+      <c r="G9" s="7">
+        <v>43986</v>
+      </c>
+      <c r="H9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>202</v>
+      </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
+      <c r="E10" s="7">
+        <v>43927</v>
+      </c>
+      <c r="F10" s="7">
+        <v>43980</v>
+      </c>
+      <c r="G10" s="7">
+        <v>43985</v>
+      </c>
+      <c r="H10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>303</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="7">
+        <v>43927</v>
+      </c>
+      <c r="F11" s="7">
+        <v>43980</v>
+      </c>
+      <c r="G11" s="7">
+        <v>43987</v>
+      </c>
+      <c r="H11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>406</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="7">
+        <v>43934</v>
+      </c>
+      <c r="F12" s="7">
+        <v>43956</v>
+      </c>
+      <c r="G12" s="7">
+        <v>43969</v>
+      </c>
+      <c r="H12" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>207</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13" s="7">
+        <v>43935</v>
+      </c>
+      <c r="F13" s="7">
+        <v>43977</v>
+      </c>
+      <c r="G13" s="7">
+        <v>43984</v>
+      </c>
+      <c r="H13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14">
+        <v>202</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="7">
+        <v>43936</v>
+      </c>
+      <c r="F14" s="7">
+        <v>43986</v>
+      </c>
+      <c r="G14" s="7">
+        <v>43994</v>
+      </c>
+      <c r="H14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+      <c r="C15">
+        <v>305</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="7">
+        <v>43936</v>
+      </c>
+      <c r="F15" s="7">
+        <v>43968</v>
+      </c>
+      <c r="G15" s="7">
+        <v>43973</v>
+      </c>
+      <c r="H15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+      <c r="C16">
+        <v>203</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="7">
+        <v>43937</v>
+      </c>
+      <c r="F16" s="7">
+        <v>43950</v>
+      </c>
+      <c r="G16" s="7">
+        <v>43954</v>
+      </c>
+      <c r="H16" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>407</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="7">
+        <v>43938</v>
+      </c>
+      <c r="F17" s="7">
+        <v>43982</v>
+      </c>
+      <c r="G17" s="7">
+        <v>43986</v>
+      </c>
+      <c r="H17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>402</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" s="7">
+        <v>43939</v>
+      </c>
+      <c r="F18" s="7">
+        <v>43981</v>
+      </c>
+      <c r="G18" s="7">
+        <v>43985</v>
+      </c>
+      <c r="H18" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>203</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="7">
+        <v>43940</v>
+      </c>
+      <c r="F19" s="7">
+        <v>43991</v>
+      </c>
+      <c r="G19" s="7">
+        <v>43994</v>
+      </c>
+      <c r="H19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>208</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" s="7">
+        <v>43941</v>
+      </c>
+      <c r="F20" s="7">
+        <v>43965</v>
+      </c>
+      <c r="G20" s="7">
+        <v>43969</v>
+      </c>
+      <c r="H20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6</v>
+      </c>
+      <c r="C21">
+        <v>407</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="7">
+        <v>43942</v>
+      </c>
+      <c r="F21" s="7">
+        <v>43992</v>
+      </c>
+      <c r="G21" s="7">
+        <v>43997</v>
+      </c>
+      <c r="H21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>7</v>
+      </c>
+      <c r="C22">
+        <v>305</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" s="7">
+        <v>43943</v>
+      </c>
+      <c r="F22" s="7">
+        <v>43974</v>
+      </c>
+      <c r="G22" s="7">
+        <v>43978</v>
+      </c>
+      <c r="H22" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>5</v>
+      </c>
+      <c r="C23">
+        <v>207</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" s="7">
+        <v>43944</v>
+      </c>
+      <c r="F23" s="7">
+        <v>43992</v>
+      </c>
+      <c r="G23" s="7">
+        <v>43994</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>403</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="7">
+        <v>43945</v>
+      </c>
+      <c r="F24" s="7">
+        <v>43992</v>
+      </c>
+      <c r="G24" s="7">
+        <v>43995</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25">
+        <v>305</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" s="7">
+        <v>43946</v>
+      </c>
+      <c r="F25" s="7">
+        <v>43978</v>
+      </c>
+      <c r="G25" s="7">
+        <v>43983</v>
+      </c>
+      <c r="H25" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="7">
+        <v>43947</v>
+      </c>
+      <c r="F26" s="7">
+        <v>43992</v>
+      </c>
+      <c r="G26" s="7">
+        <v>43994</v>
+      </c>
+      <c r="H26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>403</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="7">
+        <v>43950</v>
+      </c>
+      <c r="F27" s="7">
+        <v>43979</v>
+      </c>
+      <c r="G27" s="7">
+        <v>43983</v>
+      </c>
+      <c r="H27" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>4</v>
+      </c>
+      <c r="C28">
+        <v>408</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="7">
+        <v>43951</v>
+      </c>
+      <c r="F28" s="7">
+        <v>43979</v>
+      </c>
+      <c r="G28" s="7">
+        <v>43980</v>
+      </c>
+      <c r="H28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>204</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" s="7">
+        <v>43952</v>
+      </c>
+      <c r="F29" s="7">
+        <v>43981</v>
+      </c>
+      <c r="G29" s="7">
+        <v>43984</v>
+      </c>
+      <c r="H29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>306</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="7">
+        <v>43953</v>
+      </c>
+      <c r="F30" s="7">
+        <v>43984</v>
+      </c>
+      <c r="G30" s="7">
+        <v>43995</v>
+      </c>
+      <c r="H30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>301</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="7">
+        <v>43954</v>
+      </c>
+      <c r="F31" s="7">
+        <v>43995</v>
+      </c>
+      <c r="G31" s="7">
+        <v>44000</v>
+      </c>
+      <c r="H31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>4</v>
+      </c>
+      <c r="C32">
+        <v>204</v>
+      </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
+      <c r="E32" s="7">
+        <v>43955</v>
+      </c>
+      <c r="F32" s="7">
+        <v>43992</v>
+      </c>
+      <c r="G32" s="7">
+        <v>43994</v>
+      </c>
+      <c r="H32" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>301</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="7">
+        <v>43956</v>
+      </c>
+      <c r="F33" s="7">
+        <v>43996</v>
+      </c>
+      <c r="G33" s="7">
+        <v>43999</v>
+      </c>
+      <c r="H33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+      <c r="C34">
+        <v>306</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="7">
+        <v>43957</v>
+      </c>
+      <c r="F34" s="7">
+        <v>43979</v>
+      </c>
+      <c r="G34" s="7">
+        <v>43980</v>
+      </c>
+      <c r="H34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>5</v>
+      </c>
+      <c r="C35">
+        <v>408</v>
+      </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
+      <c r="E35" s="7">
+        <v>43958</v>
+      </c>
+      <c r="F35" s="7">
+        <v>43981</v>
+      </c>
+      <c r="G35" s="7">
+        <v>43983</v>
+      </c>
+      <c r="H35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E36" s="7">
+        <v>43959</v>
+      </c>
+      <c r="F36" s="7">
+        <v>44003</v>
+      </c>
+      <c r="G36" s="7">
+        <v>44007</v>
+      </c>
+      <c r="H36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>5</v>
+      </c>
+      <c r="C37">
+        <v>205</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="7">
+        <v>43960</v>
+      </c>
+      <c r="F37" s="7">
+        <v>44010</v>
+      </c>
+      <c r="G37" s="7">
+        <v>44012</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>207</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="7">
+        <v>43961</v>
+      </c>
+      <c r="F38" s="7">
+        <v>43985</v>
+      </c>
+      <c r="G38" s="7">
+        <v>43987</v>
+      </c>
+      <c r="H38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>5</v>
+      </c>
+      <c r="C39" t="s">
+        <v>62</v>
+      </c>
+      <c r="D39" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="7">
+        <v>43962</v>
+      </c>
+      <c r="F39" s="7">
+        <v>44010</v>
+      </c>
+      <c r="G39" s="7">
+        <v>44011</v>
+      </c>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>62</v>
+      </c>
+      <c r="D40" t="s">
+        <v>61</v>
+      </c>
+      <c r="E40" s="7">
+        <v>43963</v>
+      </c>
+      <c r="F40" s="7">
+        <v>44000</v>
+      </c>
+      <c r="G40" s="7">
+        <v>44003</v>
+      </c>
+      <c r="H40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>5</v>
+      </c>
+      <c r="C41">
+        <v>405</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="7">
+        <v>43965</v>
+      </c>
+      <c r="F41" s="7">
+        <v>43992</v>
+      </c>
+      <c r="G41" s="7">
+        <v>43994</v>
+      </c>
+      <c r="H41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>207</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" s="7">
+        <v>43966</v>
+      </c>
+      <c r="F42" s="7">
+        <v>43996</v>
+      </c>
+      <c r="G42" s="7">
+        <v>43999</v>
+      </c>
+      <c r="H42" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>402</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" s="7">
+        <v>43967</v>
+      </c>
+      <c r="F43" s="7">
+        <v>44000</v>
+      </c>
+      <c r="G43" s="7">
+        <v>44005</v>
+      </c>
+      <c r="H43" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>306</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" s="7">
+        <v>43968</v>
+      </c>
+      <c r="F44" s="7">
+        <v>44011</v>
+      </c>
+      <c r="G44" s="7">
+        <v>44014</v>
+      </c>
+      <c r="H44" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>5</v>
+      </c>
+      <c r="C45">
+        <v>302</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="7">
+        <v>43969</v>
+      </c>
+      <c r="F45" s="7">
+        <v>44010</v>
+      </c>
+      <c r="G45" s="7">
+        <v>44012</v>
+      </c>
+      <c r="H45" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+      <c r="C46">
+        <v>307</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="7">
+        <v>43970</v>
+      </c>
+      <c r="F46" s="7">
+        <v>44010</v>
+      </c>
+      <c r="G46" s="7">
+        <v>44012</v>
+      </c>
+      <c r="H46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>305</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" s="7">
+        <v>43971</v>
+      </c>
+      <c r="F47" s="7">
+        <v>43992</v>
+      </c>
+      <c r="G47" s="7">
+        <v>43995</v>
+      </c>
+      <c r="H47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48">
+        <v>302</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48" s="7">
+        <v>43972</v>
+      </c>
+      <c r="F48" s="7">
+        <v>44013</v>
+      </c>
+      <c r="G48" s="7">
+        <v>44016</v>
+      </c>
+      <c r="H48" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D49" t="s">
+        <v>59</v>
+      </c>
+      <c r="E49" s="7">
+        <v>43973</v>
+      </c>
+      <c r="F49" s="7">
+        <v>44022</v>
+      </c>
+      <c r="G49" s="7">
+        <v>44025</v>
+      </c>
+      <c r="H49" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>64</v>
+      </c>
+      <c r="D50" t="s">
+        <v>65</v>
+      </c>
+      <c r="E50" s="7">
+        <v>43974</v>
+      </c>
+      <c r="F50" s="7">
+        <v>44027</v>
+      </c>
+      <c r="G50" s="7">
+        <v>44030</v>
+      </c>
+      <c r="H50" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>205</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="7">
+        <v>43987</v>
+      </c>
+      <c r="F51" s="7">
+        <v>43992</v>
+      </c>
+      <c r="G51" s="7">
+        <v>43993</v>
+      </c>
+      <c r="H51" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
+++ b/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkwch\Documents\GitHub\csharp-for-skill\Excel\2020지방\EXCEL2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53389A12-C688-4962-A5F4-9BE54328AF95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A1677-9688-4306-82FA-F37E84FC1478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -344,8 +344,35 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFB3B3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFFB3B3"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1306,7 +1333,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2652,6 +2679,17 @@
   </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A2:I51">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+      <formula>$G2&lt;=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>$F2&lt;=TODAY()</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="3">
+      <formula>$F2&gt;TODAY()</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>

--- a/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
+++ b/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkwch\Documents\GitHub\csharp-for-skill\Excel\2020지방\EXCEL2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1A1677-9688-4306-82FA-F37E84FC1478}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B04250B-89FA-4193-972C-BE4FEB267DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" activeTab="3" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="99">
   <si>
     <t>호텔 예약 프로그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,6 +241,102 @@
   <si>
     <t>총금액</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리뷰번호</t>
+  </si>
+  <si>
+    <t>공개여부</t>
+  </si>
+  <si>
+    <t>평점</t>
+  </si>
+  <si>
+    <t>리뷰</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>친절하고 상냥한 프런트 직원과, 맛있는 조식에 감사합니다.</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>직원들이 친절하지가 않네요.</t>
+  </si>
+  <si>
+    <t>비공개 있으니까 1.5점 드립니다. 서비스, 질 모든 면에서 만족스럽지 않네요.</t>
+  </si>
+  <si>
+    <t>최고입니다.123</t>
+  </si>
+  <si>
+    <t>좋은데, 조금 마음에 안 드네요</t>
+  </si>
+  <si>
+    <t>글쎄요, 좋은 거 같은데 이 정도면..</t>
+  </si>
+  <si>
+    <t>요즘 따라 점점 별로가 되는 기분인데요. 발전해주시기 바랍니다.</t>
+  </si>
+  <si>
+    <t>적당적당한 줄 알았더니, 더 좋네요. 생각보다</t>
+  </si>
+  <si>
+    <t>좋은 추억 가지고 갑니다.</t>
+  </si>
+  <si>
+    <t>실내 온도조절이 안되고, 따뜻한 물이 시간대별로 나와서 불편합니다.</t>
+  </si>
+  <si>
+    <t>최고네요!!</t>
+  </si>
+  <si>
+    <t>좋습니다. 가성비가 조금 떨어지는 느낌이긴 합니다.</t>
+  </si>
+  <si>
+    <t>적당합니다.</t>
+  </si>
+  <si>
+    <t>예약방식이 너무 어렵습니다.</t>
+  </si>
+  <si>
+    <t>최고다 이건</t>
+  </si>
+  <si>
+    <t>뭐라 할 건 없는데 조금 그렇네요</t>
+  </si>
+  <si>
+    <t>청결상태에 조금 더 신경 써주시길 바랍니다.</t>
+  </si>
+  <si>
+    <t>전화를 잘 받아주세요.</t>
+  </si>
+  <si>
+    <t>최고가 된다면 바로 이 호실! 일걸요?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">친절합니다. </t>
+  </si>
+  <si>
+    <t>예약확인이 안되네요</t>
+  </si>
+  <si>
+    <t>잘 쉬다 갑니다.</t>
+  </si>
+  <si>
+    <t>깨끗해요</t>
+  </si>
+  <si>
+    <t>화장실에서 냄새가 납니다</t>
+  </si>
+  <si>
+    <t>훌륭한 숙소입니다.</t>
+  </si>
+  <si>
+    <t>아주 좋습니다.</t>
   </si>
 </sst>
 </file>
@@ -1332,7 +1428,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -2698,12 +2794,580 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3E0452-8693-4D78-9808-F5D80DF6EB55}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="6" max="6" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D2">
+        <v>201</v>
+      </c>
+      <c r="E2">
+        <v>4</v>
+      </c>
+      <c r="F2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3">
+        <v>202</v>
+      </c>
+      <c r="E3">
+        <v>3.5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4">
+        <v>202</v>
+      </c>
+      <c r="E4">
+        <v>1.5</v>
+      </c>
+      <c r="F4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5">
+        <v>204</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6">
+        <v>205</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7">
+        <v>206</v>
+      </c>
+      <c r="E7">
+        <v>3.5</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>203</v>
+      </c>
+      <c r="E8">
+        <v>1.5</v>
+      </c>
+      <c r="F8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D9">
+        <v>203</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>301</v>
+      </c>
+      <c r="E10">
+        <v>3.5</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11">
+        <v>302</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12">
+        <v>303</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13">
+        <v>302</v>
+      </c>
+      <c r="E13">
+        <v>5</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14">
+        <v>305</v>
+      </c>
+      <c r="E14">
+        <v>4.5</v>
+      </c>
+      <c r="F14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15">
+        <v>306</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16">
+        <v>307</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17">
+        <v>208</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18">
+        <v>405</v>
+      </c>
+      <c r="E18">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
+        <v>73</v>
+      </c>
+      <c r="D19">
+        <v>402</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>4</v>
+      </c>
+      <c r="C20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20">
+        <v>403</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21">
+        <v>408</v>
+      </c>
+      <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22">
+        <v>406</v>
+      </c>
+      <c r="E22">
+        <v>3.5</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>3</v>
+      </c>
+      <c r="C23" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23">
+        <v>407</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>408</v>
+      </c>
+      <c r="E24">
+        <v>5</v>
+      </c>
+      <c r="F24" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25">
+        <v>202</v>
+      </c>
+      <c r="E25">
+        <v>3.5</v>
+      </c>
+      <c r="F25" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="C26" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26">
+        <v>303</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="C27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27">
+        <v>201</v>
+      </c>
+      <c r="E27">
+        <v>5</v>
+      </c>
+      <c r="F27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>8</v>
+      </c>
+      <c r="C28" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28">
+        <v>202</v>
+      </c>
+      <c r="E28">
+        <v>5</v>
+      </c>
+      <c r="F28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
+++ b/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkwch\Documents\GitHub\csharp-for-skill\Excel\2020지방\EXCEL2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B04250B-89FA-4193-972C-BE4FEB267DDB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2E9E6B-23A0-46E7-9ECC-C4F3D890EEB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -478,6 +478,191 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="2C928815A2098124E082A0D6261B9401EF9D52"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="3598"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="1323"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="122DDB3D21742C14D851A1B31D2CF12300FED1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5292"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>38100</xdr:colOff>
+          <xdr:row>0</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>4</xdr:col>
+          <xdr:colOff>114300</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6145" name="_ActiveXWrapper1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6145"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D8B406-7F5D-446F-9721-E44C63DFE460}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>10</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>12</xdr:col>
+          <xdr:colOff>285750</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>152400</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6146" name="_ActiveXWrapper2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s6146"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD98A33-9D64-4A50-8918-00B00764E370}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:prstDash val="solid"/>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd type="none" w="med" len="med"/>
+                </a14:hiddenLine>
+              </a:ext>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2796,7 +2981,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
@@ -3376,11 +3561,13 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB74EF1-61BE-405C-85A8-CBA09CB00C5B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB74EF1-61BE-405C-85A8-CBA09CB00C5B}">
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <sheetData/>
@@ -3388,5 +3575,59 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+  <controls>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6146" r:id="rId4" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>10</xdr:col>
+                <xdr:colOff>209550</xdr:colOff>
+                <xdr:row>1</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>12</xdr:col>
+                <xdr:colOff>285750</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6146" r:id="rId4" name="_ActiveXWrapper2"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6145" r:id="rId6" name="_ActiveXWrapper1">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6145" r:id="rId6" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </controls>
 </worksheet>
 </file>
--- a/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
+++ b/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkwch\Documents\GitHub\csharp-for-skill\Excel\2020지방\EXCEL2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2E9E6B-23A0-46E7-9ECC-C4F3D890EEB1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C66D7-533B-4459-ABC0-D3AB32FFE90D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="100">
   <si>
     <t>호텔 예약 프로그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -337,6 +337,10 @@
   </si>
   <si>
     <t>아주 좋습니다.</t>
+  </si>
+  <si>
+    <t>결제번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -451,14 +455,14 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFB3B3"/>
+          <bgColor theme="9" tint="0.59996337778862885"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.59996337778862885"/>
+          <bgColor rgb="FFFFB3B3"/>
         </patternFill>
       </fill>
     </dxf>
@@ -482,6 +486,23 @@
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
+  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
+  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
+  <ax:ocxPr ax:name="Cookie" ax:value="122DDB3D21742C14D851A1B31D2CF12300FED1"/>
+  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
+  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
+  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
+  <ax:ocxPr ax:name="Sizel_cx" ax:value="5292"/>
+  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
+  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
+</ax:ocx>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
   <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.Button"/>
   <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
   <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
@@ -493,23 +514,6 @@
   <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
   <ax:ocxPr ax:name="Sizel_cx" ax:value="3598"/>
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1323"/>
-  <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
-</ax:ocx>
-</file>
-
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{A37BBB42-E8C1-4E09-B9CA-F009CE620C08}" ax:persistence="persistPropertyBag">
-  <ax:ocxPr ax:name="RawObjectTypeName" ax:value="System.Windows.Forms.ComboBox"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyName" ax:value="System.Windows.Forms, Version=4.0.0.0, Culture=neutral, PublicKeyToken=b77a5c561934e089"/>
-  <ax:ocxPr ax:name="RawObjectAssemblyPath" ax:value=""/>
-  <ax:ocxPr ax:name="Cookie" ax:value="122DDB3D21742C14D851A1B31D2CF12300FED1"/>
-  <ax:ocxPr ax:name="ControlInfo_cb" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_hAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_cAccel" ax:value="0"/>
-  <ax:ocxPr ax:name="ControlInfo_dwFlags" ax:value="0"/>
-  <ax:ocxPr ax:name="MiscStatusBits" ax:value="0"/>
-  <ax:ocxPr ax:name="Sizel_cx" ax:value="5292"/>
-  <ax:ocxPr ax:name="Sizel_cy" ax:value="529"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
 </file>
@@ -539,7 +543,7 @@
                   <a14:compatExt spid="_x0000_s6145"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54D8B406-7F5D-446F-9721-E44C63DFE460}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000001180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -559,27 +563,16 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
-                  <a:prstDash val="solid"/>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
-                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -612,7 +605,7 @@
                   <a14:compatExt spid="_x0000_s6146"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7CD98A33-9D64-4A50-8918-00B00764E370}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002180000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -632,27 +625,16 @@
             <a:ln>
               <a:noFill/>
             </a:ln>
-            <a:effectLst/>
             <a:extLst>
               <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
                 <a14:hiddenLine w="9525">
                   <a:solidFill>
                     <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
                   </a:solidFill>
-                  <a:prstDash val="solid"/>
                   <a:miter lim="800000"/>
                   <a:headEnd/>
-                  <a:tailEnd type="none" w="med" len="med"/>
+                  <a:tailEnd/>
                 </a14:hiddenLine>
-              </a:ext>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
               </a:ext>
             </a:extLst>
           </xdr:spPr>
@@ -2961,10 +2943,10 @@
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="A2:I51">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="1" stopIfTrue="1">
       <formula>$G2&lt;=TODAY()</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>$F2&lt;=TODAY()</formula>
     </cfRule>
     <cfRule type="expression" dxfId="0" priority="3">
@@ -2979,576 +2961,660 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E3E0452-8693-4D78-9808-F5D80DF6EB55}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="72.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="7" max="7" width="72.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.28515625" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>67</v>
       </c>
       <c r="B1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" t="s">
         <v>48</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>68</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>69</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>201</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>73</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>202</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>3.5</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>202</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>1.5</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>31</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>73</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>204</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>35</v>
+      </c>
+      <c r="C6">
         <v>5</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>71</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>205</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
         <v>73</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>206</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>3.5</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>71</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>203</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>1.5</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>15</v>
+      </c>
+      <c r="C9">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>73</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>203</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>5</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>32</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>71</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>301</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>3.5</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>35</v>
+      </c>
+      <c r="C11">
         <v>5</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>302</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
         <v>71</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>303</v>
       </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>47</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>73</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>302</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>5</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>71</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>305</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4.5</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>33</v>
+      </c>
+      <c r="C15">
         <v>4</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>73</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>306</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>3</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
+        <v>45</v>
+      </c>
+      <c r="C16">
         <v>5</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>71</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>307</v>
       </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16" t="s">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
         <v>73</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>208</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>5</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>405</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>4</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="C19">
         <v>3</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>73</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>402</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>26</v>
+      </c>
+      <c r="C20">
         <v>4</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>71</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>403</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>2</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>5</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>71</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>408</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>4</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
         <v>71</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>406</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>3.5</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <v>16</v>
+      </c>
+      <c r="C23">
         <v>3</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>71</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>407</v>
       </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <v>27</v>
+      </c>
+      <c r="C24">
         <v>4</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>71</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>408</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>5</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>1</v>
-      </c>
-      <c r="C25" t="s">
+        <v>39</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
         <v>73</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>202</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>3.5</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
+        <v>10</v>
+      </c>
+      <c r="C26">
         <v>7</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>73</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>303</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>2</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
         <v>8</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>73</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>201</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>5</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
         <v>8</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>71</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>202</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>5</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3565,7 +3631,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -3580,8 +3646,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="6146" r:id="rId4" name="_ActiveXWrapper2">
+        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1">
           <controlPr defaultSize="0" autoLine="0" r:id="rId5">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>38100</xdr:colOff>
+                <xdr:row>0</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>4</xdr:col>
+                <xdr:colOff>114300</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="6145" r:id="rId4" name="_ActiveXWrapper1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2">
+          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>10</xdr:col>
@@ -3600,32 +3691,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="6146" r:id="rId4" name="_ActiveXWrapper2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="6145" r:id="rId6" name="_ActiveXWrapper1">
-          <controlPr defaultSize="0" autoLine="0" r:id="rId7">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>38100</xdr:colOff>
-                <xdr:row>0</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>4</xdr:col>
-                <xdr:colOff>114300</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="6145" r:id="rId6" name="_ActiveXWrapper1"/>
+        <control shapeId="6146" r:id="rId6" name="_ActiveXWrapper2"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>

--- a/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
+++ b/Excel/2020지방/EXCEL2020/EXCEL2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkwch\Documents\GitHub\csharp-for-skill\Excel\2020지방\EXCEL2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A59C66D7-533B-4459-ABC0-D3AB32FFE90D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A376D8-80AA-4A77-9804-306EFB548C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="15435" activeTab="4" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
+    <workbookView xWindow="4290" yWindow="4290" windowWidth="28800" windowHeight="15435" activeTab="5" xr2:uid="{4A4A13F4-4713-447B-83B1-97E7B2631CA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="104">
   <si>
     <t>호텔 예약 프로그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -340,6 +340,22 @@
   </si>
   <si>
     <t>결제번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6월</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구분</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -347,7 +363,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -365,6 +384,14 @@
     </font>
     <font>
       <sz val="40"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -410,12 +437,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -440,8 +470,12 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="쉼표 [0]" xfId="1" builtinId="6"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="3">
@@ -516,6 +550,914 @@
   <ax:ocxPr ax:name="Sizel_cy" ax:value="1323"/>
   <ax:ocxPr ax:name="IsDynamic" ax:value="0"/>
 </ax:ocx>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ko-KR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet6!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>총금액</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="74000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="85000">
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="45000"/>
+                    <a:lumOff val="55000"/>
+                  </a:schemeClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:schemeClr val="bg1"/>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="5400000" scaled="1"/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet6!$H$2:$H$6</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4월</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5월</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6월</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet6!$I$2:$I$6</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>345</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>234</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54DF-4044-B83C-C9615E385979}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:gapDepth val="0"/>
+        <c:shape val="box"/>
+        <c:axId val="903470031"/>
+        <c:axId val="904774159"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="903470031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="904774159"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="904774159"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ko-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="903470031"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ko-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="293">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="bg1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill>
+        <a:gsLst>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="0"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="50000">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:sp3d/>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="phClr"/>
+          </a:gs>
+          <a:gs pos="75000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="51000">
+            <a:schemeClr val="phClr">
+              <a:alpha val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="phClr">
+              <a:lumMod val="20000"/>
+              <a:lumOff val="80000"/>
+              <a:alpha val="15000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:lin ang="5400000" scaled="0"/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:shade val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+        <a:headEnd type="none" w="sm" len="sm"/>
+        <a:tailEnd type="none" w="sm" len="sm"/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" cap="all" spc="50" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -644,6 +1586,42 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>576261</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="차트 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1596,7 +2574,7 @@
   <dimension ref="A1:I51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2963,7 +3941,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -3629,14 +4607,251 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CB74EF1-61BE-405C-85A8-CBA09CB00C5B}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1"/>
+  <dimension ref="H1:I71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="9" max="9" width="15.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="8">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I3" s="8">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="4" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>102</v>
+      </c>
+      <c r="I4" s="8">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="5" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="8"/>
+    </row>
+    <row r="6" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="8"/>
+    </row>
+    <row r="14" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="8"/>
+    </row>
+    <row r="15" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I15" s="8"/>
+    </row>
+    <row r="16" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="I16" s="8"/>
+    </row>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I17" s="8"/>
+    </row>
+    <row r="18" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I18" s="8"/>
+    </row>
+    <row r="19" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" s="8"/>
+    </row>
+    <row r="32" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="8"/>
+    </row>
+    <row r="33" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I33" s="8"/>
+    </row>
+    <row r="34" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I34" s="8"/>
+    </row>
+    <row r="35" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I35" s="8"/>
+    </row>
+    <row r="36" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I36" s="8"/>
+    </row>
+    <row r="37" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I37" s="8"/>
+    </row>
+    <row r="38" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I38" s="8"/>
+    </row>
+    <row r="39" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I39" s="8"/>
+    </row>
+    <row r="40" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I40" s="8"/>
+    </row>
+    <row r="41" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I41" s="8"/>
+    </row>
+    <row r="42" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I42" s="8"/>
+    </row>
+    <row r="43" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I43" s="8"/>
+    </row>
+    <row r="44" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I44" s="8"/>
+    </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I45" s="8"/>
+    </row>
+    <row r="46" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I46" s="8"/>
+    </row>
+    <row r="47" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="8"/>
+    </row>
+    <row r="48" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I48" s="8"/>
+    </row>
+    <row r="49" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I49" s="8"/>
+    </row>
+    <row r="50" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I50" s="8"/>
+    </row>
+    <row r="51" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I51" s="8"/>
+    </row>
+    <row r="52" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I52" s="8"/>
+    </row>
+    <row r="53" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="8"/>
+    </row>
+    <row r="54" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I54" s="8"/>
+    </row>
+    <row r="55" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I55" s="8"/>
+    </row>
+    <row r="56" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="8"/>
+    </row>
+    <row r="57" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I57" s="8"/>
+    </row>
+    <row r="58" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I58" s="8"/>
+    </row>
+    <row r="59" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="8"/>
+    </row>
+    <row r="60" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I60" s="8"/>
+    </row>
+    <row r="61" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I61" s="8"/>
+    </row>
+    <row r="62" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I62" s="8"/>
+    </row>
+    <row r="63" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I63" s="8"/>
+    </row>
+    <row r="64" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I64" s="8"/>
+    </row>
+    <row r="65" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I65" s="8"/>
+    </row>
+    <row r="66" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I66" s="8"/>
+    </row>
+    <row r="67" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I67" s="8"/>
+    </row>
+    <row r="68" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I68" s="8"/>
+    </row>
+    <row r="69" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="8"/>
+    </row>
+    <row r="70" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I70" s="8"/>
+    </row>
+    <row r="71" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I71" s="8"/>
+    </row>
+  </sheetData>
   <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
